--- a/Data/EC/NIT-9004277091.xlsx
+++ b/Data/EC/NIT-9004277091.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D2E14C4-8873-49C4-8920-F83818EDD845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{180301E9-3EBB-4CEB-BBCA-DE2D79D1BCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E2EB3D65-D3F7-4411-8727-5F9AD0578B74}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0753AA4C-1354-4D66-8749-57F448FBF6A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,112 +65,112 @@
     <t>CC</t>
   </si>
   <si>
+    <t>9145589</t>
+  </si>
+  <si>
+    <t>FELIX ENRIQUE CORTINA AYOLA</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>9146634</t>
+  </si>
+  <si>
+    <t>HENRY ALLEN MARIMON ALVAREZ</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1050034883</t>
+  </si>
+  <si>
+    <t>ROBERTO CARLOS LOPEZ VASQUEZ</t>
+  </si>
+  <si>
+    <t>9299151</t>
+  </si>
+  <si>
+    <t>ROBERTO JESUS COGOLLO PADILLA</t>
+  </si>
+  <si>
+    <t>73136025</t>
+  </si>
+  <si>
+    <t>DAGOBERTO OVIEDO VARGAS</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1048604385</t>
+  </si>
+  <si>
+    <t>LUIS GUILLERMO TORRES BARRIOS</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
     <t>1047485056</t>
   </si>
   <si>
     <t>GLENDA CAROLINA GOMEZ ARTEAGA</t>
   </si>
   <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>9146634</t>
-  </si>
-  <si>
-    <t>HENRY ALLEN MARIMON ALVAREZ</t>
-  </si>
-  <si>
-    <t>1608</t>
+    <t>1030613801</t>
+  </si>
+  <si>
+    <t>ADRIANA MARGARITA DAVIS DIAZ</t>
+  </si>
+  <si>
+    <t>1143334178</t>
+  </si>
+  <si>
+    <t>ALVARO RAMON TOBIO PEREZ</t>
+  </si>
+  <si>
+    <t>1143376140</t>
+  </si>
+  <si>
+    <t>YURLEYDIS DIANY TORRES BERNATE</t>
+  </si>
+  <si>
+    <t>1047413184</t>
+  </si>
+  <si>
+    <t>CARLOS ALONSO CONTRERAS ARIZA</t>
+  </si>
+  <si>
+    <t>1705</t>
   </si>
   <si>
     <t>1143333046</t>
   </si>
   <si>
     <t>LUIS ENRIQUE HERNANDEZ MUÑOZ</t>
-  </si>
-  <si>
-    <t>1143376140</t>
-  </si>
-  <si>
-    <t>YURLEYDIS DIANY TORRES BERNATE</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1143334178</t>
-  </si>
-  <si>
-    <t>ALVARO RAMON TOBIO PEREZ</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1050034883</t>
-  </si>
-  <si>
-    <t>ROBERTO CARLOS LOPEZ VASQUEZ</t>
-  </si>
-  <si>
-    <t>9145589</t>
-  </si>
-  <si>
-    <t>FELIX ENRIQUE CORTINA AYOLA</t>
-  </si>
-  <si>
-    <t>9299151</t>
-  </si>
-  <si>
-    <t>ROBERTO JESUS COGOLLO PADILLA</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1047413184</t>
-  </si>
-  <si>
-    <t>CARLOS ALONSO CONTRERAS ARIZA</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1048604385</t>
-  </si>
-  <si>
-    <t>LUIS GUILLERMO TORRES BARRIOS</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>73136025</t>
-  </si>
-  <si>
-    <t>DAGOBERTO OVIEDO VARGAS</t>
-  </si>
-  <si>
-    <t>1030613801</t>
-  </si>
-  <si>
-    <t>ADRIANA MARGARITA DAVIS DIAZ</t>
   </si>
   <si>
     <t>1143378011</t>
@@ -608,7 +608,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B843470A-B737-1557-0271-AA154D3FD7E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A07F9101-AE78-B1EF-B6C9-22D71C40F7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -959,7 +959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2726335-DCEF-46C8-8FF3-40CA90B372C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71809045-DAC7-4A3F-8105-653F5A297DE2}">
   <dimension ref="B2:J54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1140,7 +1140,7 @@
         <v>27578</v>
       </c>
       <c r="G16" s="18">
-        <v>1423500</v>
+        <v>689455</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1157,13 +1157,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>27578</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>689454</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1180,13 +1180,13 @@
         <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>27578</v>
       </c>
       <c r="G18" s="18">
-        <v>1160000</v>
+        <v>689454</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1197,19 +1197,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F19" s="18">
         <v>27578</v>
       </c>
       <c r="G19" s="18">
-        <v>689455</v>
+        <v>689454</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1220,13 +1220,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
         <v>27578</v>
@@ -1243,19 +1243,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>27578</v>
       </c>
       <c r="G21" s="18">
-        <v>1423500</v>
+        <v>689454</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1272,13 +1272,13 @@
         <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
         <v>27578</v>
       </c>
       <c r="G22" s="18">
-        <v>1160000</v>
+        <v>689454</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1289,10 +1289,10 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>19</v>
@@ -1301,7 +1301,7 @@
         <v>27578</v>
       </c>
       <c r="G23" s="18">
-        <v>1423500</v>
+        <v>689454</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1312,19 +1312,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F24" s="18">
-        <v>13789</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
-        <v>689455</v>
+        <v>689454</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1335,19 +1335,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
         <v>27578</v>
       </c>
       <c r="G25" s="18">
-        <v>1423500</v>
+        <v>689454</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1358,19 +1358,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18">
         <v>27578</v>
       </c>
       <c r="G26" s="18">
-        <v>1160000</v>
+        <v>689455</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1381,19 +1381,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F27" s="18">
         <v>27578</v>
       </c>
       <c r="G27" s="18">
-        <v>1423500</v>
+        <v>689454</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1404,19 +1404,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F28" s="18">
-        <v>27578</v>
+        <v>5516</v>
       </c>
       <c r="G28" s="18">
-        <v>1160000</v>
+        <v>689454</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1427,19 +1427,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F29" s="18">
-        <v>27578</v>
+        <v>3935</v>
       </c>
       <c r="G29" s="18">
-        <v>1423500</v>
+        <v>737717</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1450,19 +1450,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F30" s="18">
         <v>27578</v>
       </c>
       <c r="G30" s="18">
-        <v>689455</v>
+        <v>689454</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1473,19 +1473,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F31" s="18">
         <v>27578</v>
       </c>
       <c r="G31" s="18">
-        <v>689455</v>
+        <v>689454</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1496,19 +1496,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F32" s="18">
         <v>27578</v>
       </c>
       <c r="G32" s="18">
-        <v>1160000</v>
+        <v>689454</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1519,13 +1519,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F33" s="18">
         <v>27578</v>
@@ -1542,19 +1542,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F34" s="18">
         <v>27578</v>
       </c>
       <c r="G34" s="18">
-        <v>1423500</v>
+        <v>689454</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1565,19 +1565,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F35" s="18">
         <v>27578</v>
       </c>
       <c r="G35" s="18">
-        <v>1160000</v>
+        <v>689454</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1588,19 +1588,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F36" s="18">
         <v>27578</v>
       </c>
       <c r="G36" s="18">
-        <v>1423500</v>
+        <v>689454</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1611,19 +1611,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F37" s="18">
         <v>27578</v>
       </c>
       <c r="G37" s="18">
-        <v>1160000</v>
+        <v>689454</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1634,19 +1634,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F38" s="18">
         <v>27578</v>
       </c>
       <c r="G38" s="18">
-        <v>1160000</v>
+        <v>689454</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1657,19 +1657,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F39" s="18">
-        <v>27578</v>
+        <v>23607</v>
       </c>
       <c r="G39" s="18">
-        <v>1423500</v>
+        <v>737717</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1680,19 +1680,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F40" s="18">
-        <v>29509</v>
+        <v>13789</v>
       </c>
       <c r="G40" s="18">
-        <v>737717</v>
+        <v>689455</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1703,19 +1703,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F41" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G41" s="18">
-        <v>737717</v>
+        <v>689454</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1726,16 +1726,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F42" s="18">
-        <v>3935</v>
+        <v>29509</v>
       </c>
       <c r="G42" s="18">
         <v>737717</v>
@@ -1749,13 +1749,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F43" s="18">
         <v>29509</v>
@@ -1772,19 +1772,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="17" t="s">
-        <v>42</v>
-      </c>
       <c r="E44" s="16" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F44" s="18">
-        <v>5516</v>
+        <v>29509</v>
       </c>
       <c r="G44" s="18">
-        <v>689454</v>
+        <v>737717</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1801,13 +1801,13 @@
         <v>44</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F45" s="18">
-        <v>23607</v>
+        <v>27578</v>
       </c>
       <c r="G45" s="18">
-        <v>737717</v>
+        <v>689455</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1824,7 +1824,7 @@
         <v>46</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
         <v>23607</v>
@@ -1853,7 +1853,7 @@
         <v>9836</v>
       </c>
       <c r="G47" s="18">
-        <v>1200000</v>
+        <v>1300000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1876,7 +1876,7 @@
         <v>29509</v>
       </c>
       <c r="G48" s="24">
-        <v>1091474</v>
+        <v>737717</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>

--- a/Data/EC/NIT-9004277091.xlsx
+++ b/Data/EC/NIT-9004277091.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{180301E9-3EBB-4CEB-BBCA-DE2D79D1BCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D641E3EC-EBF2-4AC9-9E5B-5321ECC375BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0753AA4C-1354-4D66-8749-57F448FBF6A7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6065C9EB-826C-4482-A5A5-A77E5DB94462}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,51 @@
     <t>CC</t>
   </si>
   <si>
+    <t>9146634</t>
+  </si>
+  <si>
+    <t>HENRY ALLEN MARIMON ALVAREZ</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1047485056</t>
+  </si>
+  <si>
+    <t>GLENDA CAROLINA GOMEZ ARTEAGA</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1143376140</t>
+  </si>
+  <si>
+    <t>YURLEYDIS DIANY TORRES BERNATE</t>
+  </si>
+  <si>
+    <t>1143333046</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE HERNANDEZ MUÑOZ</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1143334178</t>
+  </si>
+  <si>
+    <t>ALVARO RAMON TOBIO PEREZ</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
     <t>9145589</t>
   </si>
   <si>
@@ -74,46 +119,43 @@
     <t>1612</t>
   </si>
   <si>
-    <t>9146634</t>
-  </si>
-  <si>
-    <t>HENRY ALLEN MARIMON ALVAREZ</t>
+    <t>1050034883</t>
+  </si>
+  <si>
+    <t>ROBERTO CARLOS LOPEZ VASQUEZ</t>
+  </si>
+  <si>
+    <t>9299151</t>
+  </si>
+  <si>
+    <t>ROBERTO JESUS COGOLLO PADILLA</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
   </si>
   <si>
     <t>1703</t>
   </si>
   <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1050034883</t>
-  </si>
-  <si>
-    <t>ROBERTO CARLOS LOPEZ VASQUEZ</t>
-  </si>
-  <si>
-    <t>9299151</t>
-  </si>
-  <si>
-    <t>ROBERTO JESUS COGOLLO PADILLA</t>
+    <t>1047413184</t>
+  </si>
+  <si>
+    <t>CARLOS ALONSO CONTRERAS ARIZA</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1048604385</t>
+  </si>
+  <si>
+    <t>LUIS GUILLERMO TORRES BARRIOS</t>
+  </si>
+  <si>
+    <t>1706</t>
   </si>
   <si>
     <t>73136025</t>
@@ -125,52 +167,10 @@
     <t>1707</t>
   </si>
   <si>
-    <t>1048604385</t>
-  </si>
-  <si>
-    <t>LUIS GUILLERMO TORRES BARRIOS</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1047485056</t>
-  </si>
-  <si>
-    <t>GLENDA CAROLINA GOMEZ ARTEAGA</t>
-  </si>
-  <si>
     <t>1030613801</t>
   </si>
   <si>
     <t>ADRIANA MARGARITA DAVIS DIAZ</t>
-  </si>
-  <si>
-    <t>1143334178</t>
-  </si>
-  <si>
-    <t>ALVARO RAMON TOBIO PEREZ</t>
-  </si>
-  <si>
-    <t>1143376140</t>
-  </si>
-  <si>
-    <t>YURLEYDIS DIANY TORRES BERNATE</t>
-  </si>
-  <si>
-    <t>1047413184</t>
-  </si>
-  <si>
-    <t>CARLOS ALONSO CONTRERAS ARIZA</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1143333046</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE HERNANDEZ MUÑOZ</t>
   </si>
   <si>
     <t>1143378011</t>
@@ -293,7 +293,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -306,9 +308,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -508,23 +508,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -552,10 +552,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -608,7 +608,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A07F9101-AE78-B1EF-B6C9-22D71C40F7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D49B57D-F7FB-B77C-8783-D5424EA4FCE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -959,7 +959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71809045-DAC7-4A3F-8105-653F5A297DE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AE1AC0-30E2-4725-AB18-8B31CADE2A21}">
   <dimension ref="B2:J54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1140,7 +1140,7 @@
         <v>27578</v>
       </c>
       <c r="G16" s="18">
-        <v>689455</v>
+        <v>689454</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1157,7 +1157,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>27578</v>
@@ -1174,13 +1174,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>27578</v>
@@ -1203,7 +1203,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>27578</v>
@@ -1220,13 +1220,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F20" s="18">
         <v>27578</v>
@@ -1243,19 +1243,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F21" s="18">
         <v>27578</v>
       </c>
       <c r="G21" s="18">
-        <v>689454</v>
+        <v>689455</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1266,13 +1266,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>27578</v>
@@ -1312,10 +1312,10 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>20</v>
@@ -1341,7 +1341,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>27578</v>
@@ -1358,16 +1358,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>23</v>
-      </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F26" s="18">
-        <v>27578</v>
+        <v>13789</v>
       </c>
       <c r="G26" s="18">
         <v>689455</v>
@@ -1381,13 +1381,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F27" s="18">
         <v>27578</v>
@@ -1404,16 +1404,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>5516</v>
+        <v>27578</v>
       </c>
       <c r="G28" s="18">
         <v>689454</v>
@@ -1427,19 +1427,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>3935</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
-        <v>737717</v>
+        <v>689455</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1450,13 +1450,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
         <v>27578</v>
@@ -1473,19 +1473,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>27578</v>
       </c>
       <c r="G31" s="18">
-        <v>689454</v>
+        <v>689455</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1496,13 +1496,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F32" s="18">
         <v>27578</v>
@@ -1519,13 +1519,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F33" s="18">
         <v>27578</v>
@@ -1542,13 +1542,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>27578</v>
@@ -1565,13 +1565,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F35" s="18">
         <v>27578</v>
@@ -1588,13 +1588,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F36" s="18">
         <v>27578</v>
@@ -1611,13 +1611,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>32</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F37" s="18">
         <v>27578</v>
@@ -1634,13 +1634,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>33</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F38" s="18">
         <v>27578</v>
@@ -1657,19 +1657,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F39" s="18">
-        <v>23607</v>
+        <v>27578</v>
       </c>
       <c r="G39" s="18">
-        <v>737717</v>
+        <v>689454</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1680,19 +1680,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F40" s="18">
-        <v>13789</v>
+        <v>29509</v>
       </c>
       <c r="G40" s="18">
-        <v>689455</v>
+        <v>737717</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1703,19 +1703,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G41" s="18">
-        <v>689454</v>
+        <v>737717</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1726,16 +1726,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
-        <v>29509</v>
+        <v>3935</v>
       </c>
       <c r="G42" s="18">
         <v>737717</v>
@@ -1758,10 +1758,10 @@
         <v>42</v>
       </c>
       <c r="F43" s="18">
-        <v>29509</v>
+        <v>5516</v>
       </c>
       <c r="G43" s="18">
-        <v>737717</v>
+        <v>689454</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1772,16 +1772,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F44" s="18">
-        <v>29509</v>
+        <v>23607</v>
       </c>
       <c r="G44" s="18">
         <v>737717</v>
@@ -1795,19 +1795,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="F45" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G45" s="18">
-        <v>689455</v>
+        <v>737717</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1824,7 +1824,7 @@
         <v>46</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F46" s="18">
         <v>23607</v>
@@ -1853,7 +1853,7 @@
         <v>9836</v>
       </c>
       <c r="G47" s="18">
-        <v>1300000</v>
+        <v>737717</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>

--- a/Data/EC/NIT-9004277091.xlsx
+++ b/Data/EC/NIT-9004277091.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D641E3EC-EBF2-4AC9-9E5B-5321ECC375BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12F51A4A-6005-407B-BC9A-2AA402FD56FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6065C9EB-826C-4482-A5A5-A77E5DB94462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7549BF8C-D0D2-401B-8B2C-DBDC44D06918}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -293,9 +293,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -308,7 +306,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -502,29 +502,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -543,19 +543,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -608,7 +614,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D49B57D-F7FB-B77C-8783-D5424EA4FCE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EBDA3B1-851D-E723-48BA-E86ABF04FF48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -959,7 +965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AE1AC0-30E2-4725-AB18-8B31CADE2A21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7A072B-DEBC-40F6-8BA3-C8DC839CCC20}">
   <dimension ref="B2:J54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -982,49 +988,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -1032,7 +1038,7 @@
         <v>54</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1048,7 +1054,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9004277091</v>
       </c>
@@ -1064,7 +1070,7 @@
         <v>55</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>832620</v>
       </c>
@@ -1133,18 +1139,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G16" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="F16" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G16" s="19">
+        <v>689454</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1156,18 +1162,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G17" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="F17" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G17" s="19">
+        <v>689454</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1179,18 +1185,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G18" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="F18" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G18" s="19">
+        <v>689454</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1202,18 +1208,18 @@
       <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G19" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G19" s="19">
+        <v>689454</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1225,18 +1231,18 @@
       <c r="D20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G20" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="F20" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G20" s="19">
+        <v>689454</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1248,18 +1254,18 @@
       <c r="D21" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G21" s="18">
+      <c r="F21" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G21" s="19">
         <v>689455</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1271,18 +1277,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G22" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G22" s="19">
+        <v>689454</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1294,18 +1300,18 @@
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G23" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G23" s="19">
+        <v>689454</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1317,18 +1323,18 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G24" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G24" s="19">
+        <v>689454</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1340,18 +1346,18 @@
       <c r="D25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G25" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G25" s="19">
+        <v>689454</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1363,18 +1369,18 @@
       <c r="D26" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>13789</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>689455</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1386,18 +1392,18 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G27" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G27" s="19">
+        <v>689454</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1409,18 +1415,18 @@
       <c r="D28" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G28" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G28" s="19">
+        <v>689454</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1432,18 +1438,18 @@
       <c r="D29" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G29" s="18">
+      <c r="F29" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G29" s="19">
         <v>689455</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1455,18 +1461,18 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G30" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G30" s="19">
+        <v>689454</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1478,18 +1484,18 @@
       <c r="D31" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G31" s="18">
+      <c r="F31" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G31" s="19">
         <v>689455</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1501,18 +1507,18 @@
       <c r="D32" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G32" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="F32" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G32" s="19">
+        <v>689454</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1524,18 +1530,18 @@
       <c r="D33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G33" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G33" s="19">
+        <v>689454</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1547,18 +1553,18 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G34" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G34" s="19">
+        <v>689454</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1570,18 +1576,18 @@
       <c r="D35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G35" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G35" s="19">
+        <v>689454</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1593,18 +1599,18 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G36" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G36" s="19">
+        <v>689454</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1616,18 +1622,18 @@
       <c r="D37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G37" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G37" s="19">
+        <v>689454</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1639,18 +1645,18 @@
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G38" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G38" s="19">
+        <v>689454</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1662,18 +1668,18 @@
       <c r="D39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G39" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="F39" s="19">
+        <v>27578</v>
+      </c>
+      <c r="G39" s="19">
+        <v>689454</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1685,18 +1691,18 @@
       <c r="D40" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="19">
         <v>29509</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="19">
         <v>737717</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1708,18 +1714,18 @@
       <c r="D41" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="19">
         <v>29509</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="19">
         <v>737717</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1731,18 +1737,18 @@
       <c r="D42" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="19">
         <v>3935</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="19">
         <v>737717</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1754,18 +1760,18 @@
       <c r="D43" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="19">
         <v>5516</v>
       </c>
-      <c r="G43" s="18">
-        <v>689454</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="G43" s="19">
+        <v>689454</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1777,18 +1783,18 @@
       <c r="D44" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="19">
         <v>23607</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="19">
         <v>737717</v>
       </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1800,18 +1806,18 @@
       <c r="D45" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="19">
         <v>29509</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="19">
         <v>737717</v>
       </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1823,18 +1829,18 @@
       <c r="D46" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="19">
         <v>23607</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="19">
         <v>737717</v>
       </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1846,47 +1852,47 @@
       <c r="D47" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="19">
         <v>9836</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="19">
         <v>737717</v>
       </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="22" t="s">
+      <c r="B48" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F48" s="24">
+      <c r="F48" s="26">
         <v>29509</v>
       </c>
-      <c r="G48" s="24">
+      <c r="G48" s="26">
         <v>737717</v>
       </c>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="28"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="32"/>
+      <c r="C53" s="34"/>
       <c r="H53" s="1" t="s">
         <v>62</v>
       </c>
@@ -1894,10 +1900,10 @@
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="32"/>
+      <c r="C54" s="34"/>
       <c r="H54" s="1" t="s">
         <v>63</v>
       </c>
